--- a/src/test/java/Resources/LoginData.xlsx
+++ b/src/test/java/Resources/LoginData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamednassar/IdeaProjects/E-Commerce Project/src/test/java/TestCases/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamednassar/IdeaProjects/E-Commerce Project/src/test/java/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EB2640-59BA-0F4E-9474-DCCD17A3D7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCA4ABC-013B-124A-8DD8-1E28F380A075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{6D34382F-7288-CA4B-A1A1-0EF94D2278C9}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>standard_user</t>
   </si>
   <si>
-    <t>locked_out_user</t>
-  </si>
-  <si>
     <t>problem_user</t>
   </si>
   <si>
@@ -63,15 +60,6 @@
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>Expected URL</t>
-  </si>
-  <si>
-    <t>https://www.saucedemo.com/inventory.html</t>
-  </si>
-  <si>
-    <t>https://www.saucedemo.com/</t>
   </si>
 </sst>
 </file>
@@ -450,94 +438,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1806152E-E821-2E43-84E9-4A9587179368}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
